--- a/biology/Botanique/Coussarea_lutea/Coussarea_lutea.xlsx
+++ b/biology/Botanique/Coussarea_lutea/Coussarea_lutea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coussarea lutea est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1953, Lemée en propose la description suivante de Coussarea lutea :
 « Coussarea lutea Brem. (Nonatelia lutea Aubl. I, 190, mais non Aublet ex Steud. dans Flora XVI, 1843, 763 qui est Pal. longiflora, renseignement dû à l'obligeance de M. Bremekamp). Arbrisseau à tronc de 0,33 ou plus ramifié au sommet et à ramifications noueuses ; feuilles ovales aiguës glabres entières pétiolées, stipules amplexicaules à 2 lobes oblongs opposés ; inflorescences terminales en grappes ; fleurs à calice nu, corolle jaune à tube très long et limbe à 5 lobes longs aigus ; baie à 5 loges. - Kourou (Aublet). »
-— Albert Lemée, 1953.[4]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coussarea lutea est présent du Suriname à la Guyane.
 </t>
@@ -574,7 +590,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Coussarea lutea est largement méconnu.
 </t>
@@ -605,9 +623,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Coussarea lutea sous le nom de Nonatelia lutea et en a proposé le protologue suivant[5] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Coussarea lutea sous le nom de Nonatelia lutea et en a proposé le protologue suivant : 
 « 6. NONATELIA (lutea) foliis ovatis, acutis ; tubo nor is prælongo. (Tabula 74.)
 Frutex trunco pedali &amp; amplius, ad ſummitatem ramoſo ; ramis nodoſis. Folia ovata, acuta, glabra, integerrima, petiolata ; stipulæ amplexicaules, bilobæ, adnexæ ; lobis oblongis, oppoſitis. Flores racemoſi, terminales. Calix nudus. Corolla lutea, tubo longiſſimo, limbo quinquefido, lobis longis, acutis. Bacca quinquelocularis.
 Habitat propc montem Courou.
